--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34542.23680048953</v>
+        <v>6815112.835826656</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34542.23680048953</v>
+        <v>6815112.835826656</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13621.07205408806</v>
+        <v>817611.4074427107</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13621.07205408806</v>
+        <v>817611.4074427107</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>961059826.4201505</v>
+        <v>41052816.64548864</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10117.95449117583</v>
+        <v>1166990.037738322</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17942.90753985696</v>
+        <v>1954100.687946193</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25767.86058853807</v>
+        <v>2741211.338154065</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33884.08296601789</v>
+        <v>3489621.12323228</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42140.14114836854</v>
+        <v>4250544.891873446</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50155.21571352706</v>
+        <v>5049864.548768907</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58074.29160603761</v>
+        <v>5836734.480099458</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65993.36749854818</v>
+        <v>6623604.41143001</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74044.79467059915</v>
+        <v>7378824.384693338</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82142.50360948828</v>
+        <v>8144453.143029102</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90245.77016212959</v>
+        <v>8909989.153029911</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98349.13963602592</v>
+        <v>9675545.64436047</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106452.5091099223</v>
+        <v>10441102.13569103</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114555.8785838186</v>
+        <v>11206658.62702159</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122664.689705983</v>
+        <v>11971507.12120111</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>216</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
